--- a/public/109年08月倉儲費用.xlsx
+++ b/public/109年08月倉儲費用.xlsx
@@ -29,7 +29,7 @@
     <t>109年08月倉儲費用</t>
   </si>
   <si>
-    <t>列印日期：2020/09/24</t>
+    <t>列印日期：2020/10/08</t>
   </si>
   <si>
     <t>列印人員：秀錦</t>
